--- a/biology/Médecine/Foramen_mastoïdien/Foramen_mastoïdien.xlsx
+++ b/biology/Médecine/Foramen_mastoïdien/Foramen_mastoïdien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Foramen_masto%C3%AFdien</t>
+          <t>Foramen_mastoïdien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le foramen mastoïdien (ou canal mastoïdien ou trou mastoïdien) est un canal osseux creusé dans la partie pétreuse l'os temporal[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le foramen mastoïdien (ou canal mastoïdien ou trou mastoïdien) est un canal osseux creusé dans la partie pétreuse l'os temporal.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Foramen_masto%C3%AFdien</t>
+          <t>Foramen_mastoïdien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,14 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen mastoïdien nait sur la face exocrânienne en arrière du processus mastoïdien à proximité de la partie moyenne de la suture occipito-temporale.
 Il s'ouvre  sur la face endocrânienne dans le sillon du sinus sigmoïde.
-L'ouverture du foramen mastoïdien est en moyenne à 18 mm de l'astérion[2] et à environ 34 mm du méat auditif externe[3]. Il est généralement très étroit[1] environ 2 mm de diamètre.
+L'ouverture du foramen mastoïdien est en moyenne à 18 mm de l'astérion et à environ 34 mm du méat auditif externe. Il est généralement très étroit environ 2 mm de diamètre.
 Il transmet une veine émissaire entre le sinus sigmoïde et le plexus veineux sous-occipital, et une petite branche de l'artère occipitale, l'artère méningée postérieure à la dure-mère.
-Variation
-La position et la taille de ce foramen sont très variables[1],[3].
-Il n'est pas toujours présent[1],[3].
-Parfois, il est dupliqué d'un côté ou des deux côtés[1].
-Il peut être situé dans l'os occipital, ou dans la suture entre l'os temporal et l'os occipital.
 </t>
         </is>
       </c>
@@ -532,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Foramen_masto%C3%AFdien</t>
+          <t>Foramen_mastoïdien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +556,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La position et la taille de ce foramen sont très variables,.
+Il n'est pas toujours présent,.
+Parfois, il est dupliqué d'un côté ou des deux côtés.
+Il peut être situé dans l'os occipital, ou dans la suture entre l'os temporal et l'os occipital.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Foramen_mastoïdien</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Foramen_masto%C3%AFdien</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen mastoïdien permet le passage d'une veine émissaire entre le sinus sigmoïde et le plexus veineux suboccipital.
 </t>
